--- a/report/Results.xlsx
+++ b/report/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3163,6 +3163,1531 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10 Fold Cross Validation - Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HMM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$L$48:$M$48</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.0636257555819</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0845375382218</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$L$48:$M$48</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.0636257555819</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0845375382218</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$F$45:$G$47</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Wjazz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 Fold</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$48:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.361306215256051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.473050512699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSTM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$L$49:$M$49</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.0602621991607</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0992947084112</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$L$49:$M$49</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.0602621991607</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0992947084112</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$F$45:$G$47</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Wjazz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 Fold</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$49:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.352466001133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.571070616645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HMM - untransposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$L$50:$M$50</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.0471469809161</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.181069433613</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$L$50:$M$50</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.0471469809161</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.181069433613</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$F$45:$G$47</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Wjazz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 Fold</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$50:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.180557700488752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.454732397039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSTM - untransposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$L$51:$M$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.0245188214318</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.106090078557</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$L$51:$M$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.0245188214318</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.106090078557</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$F$45:$G$47</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Wjazz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 Fold</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$51:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.173941961687</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.521137659286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tonic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$L$52:$M$52</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.0636257555819</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0730522988339</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$L$52:$M$52</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.0636257555819</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0730522988339</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$F$45:$G$47</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Wjazz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 Fold</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$52:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.361306215256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.327964340218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>First Note</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$L$53:$M$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.0277913666209</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0937915601787</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$L$53:$M$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.0277913666209</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0937915601787</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$F$45:$G$47</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Wjazz</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KP</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 Fold</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$53:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.11744581421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.184544799733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="452118240"/>
+        <c:axId val="448772560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="452118240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448772560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448772560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy of Model</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452118240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Baselines</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wjazz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$52:$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Tonic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>First Note</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$52:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.361306215256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11744581421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$52:$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Tonic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>First Note</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$52:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.327964340218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.184544799733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="488090848"/>
+        <c:axId val="487657712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="488090848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487657712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="487657712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488090848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3443,6 +4968,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6468,6 +8073,1016 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7184,6 +9799,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7452,8 +10127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7764,13 +10439,21 @@
       <c r="E49" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="F49" s="2">
+        <v>0.35246600113299997</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.57107061664500003</v>
+      </c>
       <c r="K49" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
+      <c r="L49" s="2">
+        <v>6.0262199160699997E-2</v>
+      </c>
+      <c r="M49" s="2">
+        <v>9.92947084112E-2</v>
+      </c>
     </row>
     <row r="50" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -7802,13 +10485,21 @@
       <c r="E51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="F51" s="2">
+        <v>0.17394196168699999</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.52113765928599998</v>
+      </c>
       <c r="K51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+      <c r="L51" s="2">
+        <v>2.4518821431800002E-2</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0.10609007855700001</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
